--- a/Test/excel outputs/attendance_data.xlsx
+++ b/Test/excel outputs/attendance_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Processed Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aggregate Attendance" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,12 +622,6 @@
           <t>1700721120877x933553111105924100</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -703,12 +698,6 @@
           <t>1700832133560x168399698104213950</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -785,12 +774,6 @@
           <t>1700833347815x873810128294256800</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -867,12 +850,6 @@
           <t>1700834421878x613626033512845400</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -949,12 +926,6 @@
           <t>1700845623062x722955068324313700</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1031,12 +1002,6 @@
           <t>1700846403691x592907532092271600</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1113,12 +1078,6 @@
           <t>1700894161455x883540092311223800</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1195,12 +1154,6 @@
           <t>1700896649691x136534160105976640</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1277,12 +1230,6 @@
           <t>1700899623007x630756621725665300</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1359,12 +1306,6 @@
           <t>1701539921906x772818821748575600</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1441,12 +1382,6 @@
           <t>1701673330059x498187005452150000</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1523,12 +1458,6 @@
           <t>1701772863323x762810138662950400</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1605,12 +1534,6 @@
           <t>1701774727305x153556612522580450</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1676,7 +1599,6 @@
       <c r="M15" t="b">
         <v>0</v>
       </c>
-      <c r="N15" t="inlineStr"/>
       <c r="O15" t="b">
         <v>1</v>
       </c>
@@ -1696,9 +1618,6 @@
       <c r="S15" t="b">
         <v>0</v>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1764,7 +1683,6 @@
       <c r="M16" t="b">
         <v>0</v>
       </c>
-      <c r="N16" t="inlineStr"/>
       <c r="O16" t="b">
         <v>1</v>
       </c>
@@ -1789,8 +1707,6 @@
           <t>1702740832266x104460181574516740</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1828,7 +1744,6 @@
           <t>DSW</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="b">
         <v>0</v>
       </c>
@@ -1845,26 +1760,16 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>1702895907001x401212889779836350</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
           <t>1702883188558x742902975513287400</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1902,7 +1807,6 @@
           <t>DSW</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="b">
         <v>0</v>
       </c>
@@ -1919,26 +1823,16 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>1702895913482x678770489167153100</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
           <t>1702883188558x742902975513287400</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -1976,7 +1870,6 @@
           <t>DSW</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="b">
         <v>0</v>
       </c>
@@ -1993,26 +1886,16 @@
       <c r="J19" t="b">
         <v>1</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>1702895915604x788940755069358100</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
           <t>1702883188558x742902975513287400</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -2050,7 +1933,6 @@
           <t>DSW</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="b">
         <v>1</v>
       </c>
@@ -2067,20 +1949,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>1702895928039x269089296992361960</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
           <t>1702883188558x742902975513287400</t>
@@ -2156,7 +2029,6 @@
       <c r="M21" t="b">
         <v>0</v>
       </c>
-      <c r="N21" t="inlineStr"/>
       <c r="O21" t="b">
         <v>1</v>
       </c>
@@ -2181,8 +2053,6 @@
           <t>1704561012646x194866166666887170</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
           <t>Precious EWYL22E0313</t>
@@ -2568,4 +2438,225 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ewyl-group-name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>admissions-group-name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>attendance</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cumulative_true</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cumulative_total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>avg-att-percent-till-last-month</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Precious EWYL22E0313</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Precious 2K22APR2632</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Precious EWYL22E0313</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precious 2K22APR2632</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Precious EWYL22E0313</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Precious 2K22APR2632</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Precious EWYL22E0313</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Precious 2K22APR2632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Precious EWYL22E0313</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Precious 2K22APR2632</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>